--- a/com.absli.auto/src/main/java/com/absli/testdata/gps/Master Policy Maker - Test Data.xlsx
+++ b/com.absli.auto/src/main/java/com/absli/testdata/gps/Master Policy Maker - Test Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TC_MPM_001" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="TC_MPM_005" sheetId="5" r:id="rId5"/>
     <sheet name="TC_MPM_006" sheetId="6" r:id="rId6"/>
     <sheet name="TC_MPM_007" sheetId="7" r:id="rId7"/>
-    <sheet name="Error Popup Msg" sheetId="11" r:id="rId8"/>
+    <sheet name="TC_MPM_008" sheetId="12" r:id="rId8"/>
+    <sheet name="TC_MPM_009" sheetId="13" r:id="rId9"/>
+    <sheet name="Error Popup Msg" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="111">
   <si>
     <t>Client Name</t>
   </si>
@@ -746,6 +748,28 @@
   </si>
   <si>
     <t>Absli-Auto-GST-002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Benefits/Riders
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GPS Base Benefit/GPS Rider - Accelerated Terminal Illness Rider/GPS Rider - Accidental Death/GPS Rider - Accidental Death and Dismemberment/GPS Rider - Additional Term/GPS Rider - Critical Illness (CI13)/GPS Rider - Critical Illness (CI4)/GPS Rider - Critical Illness Accelerator/GPS Rider - Critical Illness Premier/GPS Rider - Terminal illness Premier/GPS Rider - Total Permanent Disability/GPS Rider - Terminal illness Premier (In-Built))</t>
+    </r>
+  </si>
+  <si>
+    <t>GPS Rider - Terminal illness Premier (In-Built)</t>
+  </si>
+  <si>
+    <t>GPS OYRT_V08</t>
   </si>
 </sst>
 </file>
@@ -1389,12 +1413,242 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" customWidth="1"/>
+    <col min="26" max="26" width="26.42578125" customWidth="1"/>
+    <col min="29" max="29" width="48.7109375" customWidth="1"/>
+    <col min="30" max="30" width="36.140625" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="3">
+        <v>232301</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9489466321</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="7">
+        <v>45323</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1892,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,43 +3359,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="21" width="15.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" customWidth="1"/>
-    <col min="29" max="29" width="48.7109375" customWidth="1"/>
-    <col min="30" max="30" width="36.140625" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" customWidth="1"/>
+    <col min="32" max="32" width="59.140625" customWidth="1"/>
+    <col min="33" max="33" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3235,13 +3485,31 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3">
-        <v>232301</v>
+        <v>600001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -3250,7 +3518,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
@@ -3258,7 +3526,9 @@
       <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>36</v>
       </c>
@@ -3272,7 +3542,7 @@
         <v>38</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>40</v>
@@ -3323,6 +3593,311 @@
       </c>
       <c r="AE2" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="112" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="124.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3">
+        <v>200003</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9489466321</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="7">
+        <v>45323</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/com.absli.auto/src/main/java/com/absli/testdata/gps/Master Policy Maker - Test Data.xlsx
+++ b/com.absli.auto/src/main/java/com/absli/testdata/gps/Master Policy Maker - Test Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TC_MPM_001" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="112">
   <si>
     <t>Client Name</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>GPS OYRT_V08</t>
+  </si>
+  <si>
+    <t>GPS OYRT_V09</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1322,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="3">
-        <v>232301</v>
+        <v>232309</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1418,7 +1421,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1554,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="3">
-        <v>232301</v>
+        <v>232311</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1568,7 +1571,9 @@
       <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>36</v>
       </c>
@@ -1596,9 +1601,7 @@
       <c r="Q2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
@@ -1648,7 +1651,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,7 +1793,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="3">
-        <v>200003</v>
+        <v>200004</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1892,7 +1895,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2042,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="3">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2147,7 +2150,7 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2341,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="3">
-        <v>400001</v>
+        <v>400007</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2482,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,13 +2501,13 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.140625" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
     <col min="22" max="22" width="20" customWidth="1"/>
     <col min="23" max="23" width="24" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" customWidth="1"/>
@@ -2628,12 +2631,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="3">
-        <v>500001</v>
+        <v>500003</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2666,7 +2669,7 @@
         <v>38</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>40</v>
@@ -2744,7 +2747,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,7 +2907,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="3">
-        <v>600001</v>
+        <v>600002</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -3021,7 +3024,7 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,7 +3221,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="3">
-        <v>700001</v>
+        <v>700002</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -3361,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3512,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="3">
-        <v>600001</v>
+        <v>600002</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -3626,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,7 +3796,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="3">
-        <v>200003</v>
+        <v>200004</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>

--- a/com.absli.auto/src/main/java/com/absli/testdata/gps/Master Policy Maker - Test Data.xlsx
+++ b/com.absli.auto/src/main/java/com/absli/testdata/gps/Master Policy Maker - Test Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TC_MPM_001" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="113">
   <si>
     <t>Client Name</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>GPS OYRT_V09</t>
+  </si>
+  <si>
+    <t>132430</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,27 +1205,23 @@
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1"/>
-    <col min="23" max="23" width="27" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.42578125" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="52.5703125" customWidth="1"/>
-    <col min="30" max="30" width="37.5703125" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="52.5703125" customWidth="1"/>
+    <col min="26" max="26" width="37.5703125" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,61 +1262,49 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>106</v>
       </c>
@@ -1349,7 +1336,7 @@
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>38</v>
@@ -1358,53 +1345,45 @@
         <v>39</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="Q2" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="R2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3">
+        <v>17</v>
+      </c>
+      <c r="U2" s="3">
+        <v>65</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="3">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1418,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,24 +1416,19 @@
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="21" width="15.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" customWidth="1"/>
-    <col min="29" max="29" width="48.7109375" customWidth="1"/>
-    <col min="30" max="30" width="36.140625" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="19" width="25" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" customWidth="1"/>
+    <col min="25" max="25" width="48.7109375" customWidth="1"/>
+    <col min="26" max="26" width="36.140625" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,61 +1469,49 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>106</v>
       </c>
@@ -1581,7 +1543,7 @@
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>38</v>
@@ -1590,51 +1552,45 @@
         <v>39</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="S2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3">
+        <v>17</v>
+      </c>
+      <c r="U2" s="3">
+        <v>65</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="W2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="3">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2485,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
